--- a/3_WebServer/Capacity_Test/Risultati/Number_of_Thread50_Ramp_up25/TAB_riassuntive.xlsx
+++ b/3_WebServer/Capacity_Test/Risultati/Number_of_Thread50_Ramp_up25/TAB_riassuntive.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alberto-pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raro69/Desktop/Impianti Alberto e Giuseppe/3_WebServer/Capacity_Test/Risultati/Number_of_Thread50_Ramp_up25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097AE950-A87C-4A07-9D2D-A09E011C4D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6AC2602-3D46-4BFD-B4CE-F641B61320E3}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>Osservazione 1</t>
   </si>
@@ -67,12 +72,24 @@
   <si>
     <t>Median Pawer[(req/s)/(ms)]</t>
   </si>
+  <si>
+    <t>Normalized Throughput</t>
+  </si>
+  <si>
+    <t>Fairness Index</t>
+  </si>
+  <si>
+    <t>Numeratore Fairness</t>
+  </si>
+  <si>
+    <t>Denominatore Fairness</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +111,28 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Corpo)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -123,7 +162,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -131,36 +170,36 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -168,16 +207,18 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -203,8 +244,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -221,7 +279,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -260,6 +318,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -312,72 +371,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$I$44:$I$51</c:f>
+              <c:f>Foglio1!$J$70:$J$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>250</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>750</c:v>
+                  <c:v>750.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1250</c:v>
+                  <c:v>1250.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1650</c:v>
+                  <c:v>1650.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$J$44:$J$51</c:f>
+              <c:f>Foglio1!$K$70:$K$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.3335355649930332</c:v>
+                  <c:v>4.333535564993033</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.669960856489352</c:v>
+                  <c:v>12.66996085648935</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.993333333333332</c:v>
+                  <c:v>20.99333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.648233399892661</c:v>
+                  <c:v>27.64823339989266</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.663227789240704</c:v>
+                  <c:v>31.6632277892407</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.129177431452618</c:v>
+                  <c:v>30.12917743145262</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.268113791919344</c:v>
+                  <c:v>29.26811379191934</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.715072996229335</c:v>
+                  <c:v>28.71507299622933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-407F-4316-88A8-975639AEC2E8}"/>
             </c:ext>
@@ -391,14 +450,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="962126431"/>
-        <c:axId val="962140351"/>
+        <c:axId val="1276924416"/>
+        <c:axId val="1262140032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="962126431"/>
+        <c:axId val="1276924416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4000"/>
+          <c:max val="4000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -453,17 +512,17 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="962140351"/>
+        <c:crossAx val="1262140032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="250"/>
-        <c:minorUnit val="100"/>
+        <c:majorUnit val="250.0"/>
+        <c:minorUnit val="100.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="962140351"/>
+        <c:axId val="1262140032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
+          <c:max val="50.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -518,8 +577,8 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="962126431"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="1276924416"/>
+        <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -532,14 +591,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -575,7 +634,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -614,6 +673,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -666,40 +726,40 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$I$54:$I$61</c:f>
+              <c:f>Foglio1!$J$80:$J$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>250</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>750</c:v>
+                  <c:v>750.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1250</c:v>
+                  <c:v>1250.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1650</c:v>
+                  <c:v>1650.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$J$54:$J$61</c:f>
+              <c:f>Foglio1!$K$80:$K$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -707,19 +767,19 @@
                   <c:v>50.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.457999999999998</c:v>
+                  <c:v>47.458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.696045999999996</c:v>
+                  <c:v>64.696046</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88.781139999999994</c:v>
+                  <c:v>88.78114</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>525.74060399999996</c:v>
+                  <c:v>525.740604</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>921.84268399999996</c:v>
+                  <c:v>921.842684</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1114.47055</c:v>
@@ -731,7 +791,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7A2C-4726-A577-2742D7DFF879}"/>
             </c:ext>
@@ -745,14 +805,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="997483615"/>
-        <c:axId val="997485535"/>
+        <c:axId val="-1961197904"/>
+        <c:axId val="1281611184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="997483615"/>
+        <c:axId val="-1961197904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4000"/>
+          <c:max val="4000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -807,17 +867,17 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="997485535"/>
+        <c:crossAx val="1281611184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="250"/>
-        <c:minorUnit val="100"/>
+        <c:majorUnit val="250.0"/>
+        <c:minorUnit val="100.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="997485535"/>
+        <c:axId val="1281611184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
+          <c:max val="1000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -872,7 +932,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="997483615"/>
+        <c:crossAx val="-1961197904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -886,14 +946,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -929,7 +989,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -968,6 +1028,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1020,72 +1081,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$I$65:$I$72</c:f>
+              <c:f>Foglio1!$J$91:$J$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>250</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>750</c:v>
+                  <c:v>750.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1250</c:v>
+                  <c:v>1250.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1650</c:v>
+                  <c:v>1650.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$J$65:$J$72</c:f>
+              <c:f>Foglio1!$K$91:$K$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8.5054672521943722E-2</c:v>
+                  <c:v>0.0850546725219437</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26697207755255914</c:v>
+                  <c:v>0.266972077552559</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32444563674206595</c:v>
+                  <c:v>0.324445636742066</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31140437333650295</c:v>
+                  <c:v>0.311404373336503</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0225950874512837E-2</c:v>
+                  <c:v>0.0602259508745128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2805959922811656E-2</c:v>
+                  <c:v>0.0328059599228116</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6261899690323217E-2</c:v>
+                  <c:v>0.0262618996903232</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1830466291727264E-2</c:v>
+                  <c:v>0.0218304662917273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5DEC-4C8A-8E6B-912E378C7DA8}"/>
             </c:ext>
@@ -1099,14 +1160,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1008409823"/>
-        <c:axId val="1008402143"/>
+        <c:axId val="1325776144"/>
+        <c:axId val="1325778896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1008409823"/>
+        <c:axId val="1325776144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4000"/>
+          <c:max val="4000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1161,14 +1222,14 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1008402143"/>
+        <c:crossAx val="1325778896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="250"/>
-        <c:minorUnit val="100"/>
+        <c:majorUnit val="250.0"/>
+        <c:minorUnit val="100.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1008402143"/>
+        <c:axId val="1325778896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.25"/>
@@ -1226,7 +1287,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1008409823"/>
+        <c:crossAx val="1325776144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1240,14 +1301,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2954,23 +3015,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>517921</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>110726</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9921</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>15476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>232171</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>186926</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>390921</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>91676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Grafico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8E36E9-5A4E-F7E9-3E01-9817E8D7F8B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F8E36E9-5A4E-F7E9-3E01-9817E8D7F8B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2990,23 +3051,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>511968</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>3570</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>3968</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>98820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>226218</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>79770</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>384968</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>175020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Grafico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60ED9EC1-D375-3F4A-9E8D-8B4536F80057}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60ED9EC1-D375-3F4A-9E8D-8B4536F80057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3026,23 +3087,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>511969</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>86914</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>3969</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>182164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>226219</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>163114</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>384969</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>67864</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="Grafico 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7916C707-F5B2-C1A1-5DDA-1D41B66E8D77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7916C707-F5B2-C1A1-5DDA-1D41B66E8D77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3359,50 +3420,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE5125C-683A-48D7-AFC0-1DE44D0D7085}">
-  <dimension ref="B9:N72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B9:U98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X55" sqref="X55"/>
+    <sheetView tabSelected="1" topLeftCell="G17" workbookViewId="0">
+      <selection activeCell="U52" sqref="U52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" customWidth="1"/>
-    <col min="7" max="8" width="26.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" customWidth="1"/>
-    <col min="14" max="14" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="5.5" customWidth="1"/>
+    <col min="7" max="8" width="26.5" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" customWidth="1"/>
+    <col min="14" max="14" width="24.5" customWidth="1"/>
+    <col min="15" max="15" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
@@ -3422,7 +3484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <v>250</v>
       </c>
@@ -3448,7 +3510,7 @@
         <v>4.3336511344165238</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <v>750</v>
       </c>
@@ -3474,7 +3536,7 @@
         <v>12.669960856489352</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="4">
         <v>1250</v>
       </c>
@@ -3500,7 +3562,7 @@
         <v>20.990349839163986</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="4">
         <v>1650</v>
       </c>
@@ -3526,7 +3588,7 @@
         <v>27.655269202177486</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="4">
         <v>2000</v>
       </c>
@@ -3552,7 +3614,7 @@
         <v>31.161038701290042</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="4">
         <v>2500</v>
       </c>
@@ -3578,7 +3640,7 @@
         <v>30.279994932218418</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="4">
         <v>3000</v>
       </c>
@@ -3604,7 +3666,7 @@
         <v>29.268113791919344</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
         <v>4000</v>
       </c>
@@ -3630,15 +3692,15 @@
         <v>28.680191201274678</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="9"/>
       <c r="G26" s="12" t="s">
         <v>6</v>
@@ -3646,17 +3708,15 @@
       <c r="I26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="12" t="s">
+      <c r="N26" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C27" s="3" t="s">
         <v>0</v>
       </c>
@@ -3676,7 +3736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="4">
         <v>250</v>
       </c>
@@ -3712,7 +3772,7 @@
         <v>4.3335355649930332</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="4">
         <v>750</v>
       </c>
@@ -3748,7 +3808,7 @@
         <v>12.669960856489352</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="4">
         <v>1250</v>
       </c>
@@ -3784,7 +3844,7 @@
         <v>20.993333333333332</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="4">
         <v>1650</v>
       </c>
@@ -3820,7 +3880,7 @@
         <v>27.648233399892661</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="4">
         <v>2000</v>
       </c>
@@ -3856,7 +3916,7 @@
         <v>31.663227789240704</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33" s="4">
         <v>2500</v>
       </c>
@@ -3892,7 +3952,7 @@
         <v>30.129177431452618</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34" s="4">
         <v>3000</v>
       </c>
@@ -3928,7 +3988,7 @@
         <v>29.268113791919344</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B35" s="5">
         <v>4000</v>
       </c>
@@ -3964,21 +4024,34 @@
         <v>28.715072996229335</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
       <c r="F43" s="9"/>
       <c r="G43" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I43" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O43" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="3" t="s">
         <v>0</v>
       </c>
@@ -3988,14 +4061,18 @@
       <c r="E44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="4">
-        <v>250</v>
-      </c>
-      <c r="J44">
-        <v>4.3335355649930332</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="10"/>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B45" s="4">
         <v>250</v>
       </c>
@@ -4017,13 +4094,35 @@
         <v>8.5054672521943722E-2</v>
       </c>
       <c r="I45" s="4">
-        <v>750</v>
-      </c>
-      <c r="J45">
-        <v>12.669960856489352</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="J45" s="6">
+        <v>4.3303175566208187</v>
+      </c>
+      <c r="K45" s="6">
+        <v>4.3335355649930332</v>
+      </c>
+      <c r="L45" s="6">
+        <v>4.3336511344165238</v>
+      </c>
+      <c r="M45" s="11"/>
+      <c r="N45" s="10">
+        <f>MEDIAN(J45,K45,L45)</f>
+        <v>4.3335355649930332</v>
+      </c>
+      <c r="O45" s="10">
+        <f>N45/(I45/60)</f>
+        <v>1.040048535598328</v>
+      </c>
+      <c r="S45" t="s">
+        <v>12</v>
+      </c>
+      <c r="U45">
+        <f>SUM(O45,O52,O46,O48,O47,O50,O49,O51)^2</f>
+        <v>45.640849480758405</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B46" s="4">
         <v>750</v>
       </c>
@@ -4041,30 +4140,52 @@
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10">
-        <f t="shared" ref="G45:G52" si="3">MEDIAN(C46,D46,E46)</f>
+        <f t="shared" ref="G46:G52" si="3">MEDIAN(C46,D46,E46)</f>
         <v>0.26697207755255914</v>
       </c>
       <c r="I46" s="4">
-        <v>1250</v>
-      </c>
-      <c r="J46">
-        <v>20.993333333333332</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+      <c r="J46" s="6">
+        <v>12.668947077140551</v>
+      </c>
+      <c r="K46" s="6">
+        <v>12.670844722981531</v>
+      </c>
+      <c r="L46" s="6">
+        <v>12.669960856489352</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10">
+        <f t="shared" ref="N46:N52" si="4">MEDIAN(J46,K46,L46)</f>
+        <v>12.669960856489352</v>
+      </c>
+      <c r="O46" s="10">
+        <f t="shared" ref="O46:O52" si="5">N46/(I46/60)</f>
+        <v>1.0135968685191481</v>
+      </c>
+      <c r="S46" t="s">
+        <v>13</v>
+      </c>
+      <c r="U46">
+        <f>8*(O45^2+O46^2+O47^2+O48^2+O49^2+O50^2+O51^2+O52^2)</f>
+        <v>48.709281264551883</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B47" s="4">
         <v>1250</v>
       </c>
       <c r="C47" s="6">
-        <f t="shared" ref="C47:E47" si="4">I14/C14</f>
+        <f t="shared" ref="C47:E47" si="6">I14/C14</f>
         <v>0.32084256742746242</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.35792151691410046</v>
       </c>
       <c r="E47" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.32444563674206595</v>
       </c>
       <c r="F47" s="11"/>
@@ -4073,26 +4194,41 @@
         <v>0.32444563674206595</v>
       </c>
       <c r="I47" s="4">
-        <v>1650</v>
-      </c>
-      <c r="J47">
-        <v>27.648233399892661</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+      <c r="J47" s="6">
+        <v>20.993333333333332</v>
+      </c>
+      <c r="K47" s="6">
+        <v>20.994103117114296</v>
+      </c>
+      <c r="L47" s="6">
+        <v>20.990349839163986</v>
+      </c>
+      <c r="M47" s="11"/>
+      <c r="N47" s="10">
+        <f t="shared" si="4"/>
+        <v>20.993333333333332</v>
+      </c>
+      <c r="O47" s="10">
+        <f t="shared" si="5"/>
+        <v>1.0076799999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B48" s="4">
         <v>1650</v>
       </c>
       <c r="C48" s="6">
-        <f t="shared" ref="C48:E48" si="5">I15/C15</f>
+        <f t="shared" ref="C48:E48" si="7">I15/C15</f>
         <v>0.28572018472460753</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.31140437333650295</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.34438892422349937</v>
       </c>
       <c r="F48" s="11"/>
@@ -4101,26 +4237,41 @@
         <v>0.31140437333650295</v>
       </c>
       <c r="I48" s="4">
-        <v>2000</v>
-      </c>
-      <c r="J48">
-        <v>31.663227789240704</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+        <v>1650</v>
+      </c>
+      <c r="J48" s="6">
+        <v>27.648233399892661</v>
+      </c>
+      <c r="K48" s="6">
+        <v>27.646835265800334</v>
+      </c>
+      <c r="L48" s="6">
+        <v>27.655269202177486</v>
+      </c>
+      <c r="M48" s="11"/>
+      <c r="N48" s="10">
+        <f t="shared" si="4"/>
+        <v>27.648233399892661</v>
+      </c>
+      <c r="O48" s="10">
+        <f t="shared" si="5"/>
+        <v>1.0053903054506421</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="4">
         <v>2000</v>
       </c>
       <c r="C49" s="6">
-        <f t="shared" ref="C49:E49" si="6">I16/C16</f>
+        <f t="shared" ref="C49:E49" si="8">I16/C16</f>
         <v>8.0729174100910156E-2</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.0225950874512837E-2</v>
       </c>
       <c r="E49" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.9951785872376246E-2</v>
       </c>
       <c r="F49" s="11"/>
@@ -4129,26 +4280,41 @@
         <v>6.0225950874512837E-2</v>
       </c>
       <c r="I49" s="4">
-        <v>2500</v>
-      </c>
-      <c r="J49">
-        <v>30.129177431452618</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+      <c r="J49" s="6">
+        <v>32.390121612972045</v>
+      </c>
+      <c r="K49" s="6">
+        <v>31.663227789240704</v>
+      </c>
+      <c r="L49" s="6">
+        <v>31.161038701290042</v>
+      </c>
+      <c r="M49" s="11"/>
+      <c r="N49" s="10">
+        <f t="shared" si="4"/>
+        <v>31.663227789240704</v>
+      </c>
+      <c r="O49" s="10">
+        <f t="shared" si="5"/>
+        <v>0.949896833677221</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="4">
         <v>2500</v>
       </c>
       <c r="C50" s="6">
-        <f t="shared" ref="C50:E50" si="7">I17/C17</f>
+        <f t="shared" ref="C50:E50" si="9">I17/C17</f>
         <v>3.2548757066462854E-2</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.303360546098344E-2</v>
       </c>
       <c r="E50" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.2805959922811656E-2</v>
       </c>
       <c r="F50" s="11"/>
@@ -4157,26 +4323,41 @@
         <v>3.2805959922811656E-2</v>
       </c>
       <c r="I50" s="4">
-        <v>3000</v>
-      </c>
-      <c r="J50">
-        <v>29.268113791919344</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2500</v>
+      </c>
+      <c r="J50" s="6">
+        <v>30.004833575012082</v>
+      </c>
+      <c r="K50" s="6">
+        <v>30.129177431452618</v>
+      </c>
+      <c r="L50" s="6">
+        <v>30.279994932218418</v>
+      </c>
+      <c r="M50" s="11"/>
+      <c r="N50" s="10">
+        <f t="shared" si="4"/>
+        <v>30.129177431452618</v>
+      </c>
+      <c r="O50" s="10">
+        <f t="shared" si="5"/>
+        <v>0.72310025835486291</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="4">
         <v>3000</v>
       </c>
       <c r="C51" s="6">
-        <f t="shared" ref="C51:E51" si="8">I18/C18</f>
+        <f t="shared" ref="C51:E51" si="10">I18/C18</f>
         <v>2.5585909179691547E-2</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.8209360248027116E-2</v>
       </c>
       <c r="E51" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.6261899690323217E-2</v>
       </c>
       <c r="F51" s="11"/>
@@ -4184,27 +4365,42 @@
         <f t="shared" si="3"/>
         <v>2.6261899690323217E-2</v>
       </c>
-      <c r="I51" s="5">
-        <v>4000</v>
-      </c>
-      <c r="J51">
-        <v>28.715072996229335</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I51" s="4">
+        <v>3000</v>
+      </c>
+      <c r="J51" s="7">
+        <v>29.033623669570026</v>
+      </c>
+      <c r="K51" s="6">
+        <v>29.799447948475194</v>
+      </c>
+      <c r="L51" s="6">
+        <v>29.268113791919344</v>
+      </c>
+      <c r="M51" s="11"/>
+      <c r="N51" s="10">
+        <f t="shared" si="4"/>
+        <v>29.268113791919344</v>
+      </c>
+      <c r="O51" s="10">
+        <f t="shared" si="5"/>
+        <v>0.58536227583838685</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="5">
         <v>4000</v>
       </c>
       <c r="C52" s="6">
-        <f t="shared" ref="C52:E52" si="9">I19/C19</f>
+        <f t="shared" ref="C52:E52" si="11">I19/C19</f>
         <v>2.1553325570024592E-2</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.2292656703620423E-2</v>
       </c>
       <c r="E52" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.1830466291727264E-2</v>
       </c>
       <c r="F52" s="1"/>
@@ -4212,137 +4408,238 @@
         <f t="shared" si="3"/>
         <v>2.1830466291727264E-2</v>
       </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I54" s="4">
+      <c r="I52" s="5">
+        <v>4000</v>
+      </c>
+      <c r="J52" s="6">
+        <v>28.715072996229335</v>
+      </c>
+      <c r="K52" s="6">
+        <v>28.963333333333335</v>
+      </c>
+      <c r="L52" s="6">
+        <v>28.680191201274678</v>
+      </c>
+      <c r="M52" s="1"/>
+      <c r="N52" s="11">
+        <f t="shared" si="4"/>
+        <v>28.715072996229335</v>
+      </c>
+      <c r="O52" s="10">
+        <f t="shared" si="5"/>
+        <v>0.43072609494344</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I53" s="11"/>
+      <c r="J53" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="3">
+        <f>U45/U46</f>
+        <v>0.93700519276545913</v>
+      </c>
+    </row>
+    <row r="70" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J70" s="4">
         <v>250</v>
       </c>
-      <c r="J54">
+      <c r="K70">
+        <v>4.3335355649930332</v>
+      </c>
+    </row>
+    <row r="71" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J71" s="4">
+        <v>750</v>
+      </c>
+      <c r="K71">
+        <v>12.669960856489352</v>
+      </c>
+    </row>
+    <row r="72" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J72" s="4">
+        <v>1250</v>
+      </c>
+      <c r="K72">
+        <v>20.993333333333332</v>
+      </c>
+    </row>
+    <row r="73" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J73" s="4">
+        <v>1650</v>
+      </c>
+      <c r="K73">
+        <v>27.648233399892661</v>
+      </c>
+    </row>
+    <row r="74" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J74" s="4">
+        <v>2000</v>
+      </c>
+      <c r="K74">
+        <v>31.663227789240704</v>
+      </c>
+    </row>
+    <row r="75" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J75" s="4">
+        <v>2500</v>
+      </c>
+      <c r="K75">
+        <v>30.129177431452618</v>
+      </c>
+    </row>
+    <row r="76" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J76" s="4">
+        <v>3000</v>
+      </c>
+      <c r="K76">
+        <v>29.268113791919344</v>
+      </c>
+    </row>
+    <row r="77" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J77" s="5">
+        <v>4000</v>
+      </c>
+      <c r="K77">
+        <v>28.715072996229335</v>
+      </c>
+    </row>
+    <row r="80" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J80" s="4">
+        <v>250</v>
+      </c>
+      <c r="K80">
         <v>50.95</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I55" s="4">
+    <row r="81" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J81" s="4">
         <v>750</v>
       </c>
-      <c r="J55">
+      <c r="K81">
         <v>47.457999999999998</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I56" s="4">
+    <row r="82" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J82" s="4">
         <v>1250</v>
       </c>
-      <c r="J56">
+      <c r="K82">
         <v>64.696045999999996</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I57" s="4">
+    <row r="83" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J83" s="4">
         <v>1650</v>
       </c>
-      <c r="J57">
+      <c r="K83">
         <v>88.781139999999994</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I58" s="4">
+    <row r="84" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J84" s="4">
         <v>2000</v>
       </c>
-      <c r="J58">
+      <c r="K84">
         <v>525.74060399999996</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I59" s="4">
+    <row r="85" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J85" s="4">
         <v>2500</v>
       </c>
-      <c r="J59">
+      <c r="K85">
         <v>921.84268399999996</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I60" s="4">
+    <row r="86" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J86" s="4">
         <v>3000</v>
       </c>
-      <c r="J60">
+      <c r="K86">
         <v>1114.47055</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I61" s="5">
+    <row r="87" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J87" s="5">
         <v>4000</v>
       </c>
-      <c r="J61">
+      <c r="K87">
         <v>1313.769061</v>
       </c>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I65" s="4">
+    <row r="91" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J91" s="4">
         <v>250</v>
       </c>
-      <c r="J65">
+      <c r="K91">
         <v>8.5054672521943722E-2</v>
       </c>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I66" s="4">
+    <row r="92" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J92" s="4">
         <v>750</v>
       </c>
-      <c r="J66">
+      <c r="K92">
         <v>0.26697207755255914</v>
       </c>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I67" s="4">
+    <row r="93" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J93" s="4">
         <v>1250</v>
       </c>
-      <c r="J67">
+      <c r="K93">
         <v>0.32444563674206595</v>
       </c>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I68" s="4">
+    <row r="94" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J94" s="4">
         <v>1650</v>
       </c>
-      <c r="J68">
+      <c r="K94">
         <v>0.31140437333650295</v>
       </c>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I69" s="4">
+    <row r="95" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J95" s="4">
         <v>2000</v>
       </c>
-      <c r="J69">
+      <c r="K95">
         <v>6.0225950874512837E-2</v>
       </c>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I70" s="4">
+    <row r="96" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J96" s="4">
         <v>2500</v>
       </c>
-      <c r="J70">
+      <c r="K96">
         <v>3.2805959922811656E-2</v>
       </c>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I71" s="4">
+    <row r="97" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J97" s="4">
         <v>3000</v>
       </c>
-      <c r="J71">
+      <c r="K97">
         <v>2.6261899690323217E-2</v>
       </c>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I72" s="5">
+    <row r="98" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J98" s="5">
         <v>4000</v>
       </c>
-      <c r="J72">
+      <c r="K98">
         <v>2.1830466291727264E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J53:N53"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="C26:E26"/>
@@ -4350,6 +4647,7 @@
     <mergeCell ref="C43:E43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>